--- a/schedule_ai_spring_2024.xlsx
+++ b/schedule_ai_spring_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\fandinno\git\gradescope\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A59BBA4F-8A50-4F96-9B2C-B8BDD541839C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69BE91F2-698A-49C0-8064-156AB152A856}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22470" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -103,9 +103,6 @@
     <t>Recap</t>
   </si>
   <si>
-    <t>Midterm 1</t>
-  </si>
-  <si>
     <t>HW3</t>
   </si>
   <si>
@@ -154,9 +151,6 @@
     <t>RD5</t>
   </si>
   <si>
-    <t>Midterm 2</t>
-  </si>
-  <si>
     <t>Bayes(III)</t>
   </si>
   <si>
@@ -169,13 +163,19 @@
     <t>RD6</t>
   </si>
   <si>
-    <t>Midterm 3</t>
-  </si>
-  <si>
     <t>Project 3</t>
   </si>
   <si>
     <t>HW7</t>
+  </si>
+  <si>
+    <t>Midterm I</t>
+  </si>
+  <si>
+    <t>Midterm II</t>
+  </si>
+  <si>
+    <t>Midterm III</t>
   </si>
 </sst>
 </file>
@@ -183,7 +183,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="mm/dd/yyyy"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -211,12 +211,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -252,16 +258,17 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="2"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="2" xfId="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="date_format" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
@@ -568,11 +575,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="50" customWidth="1"/>
@@ -583,7 +590,7 @@
     <col min="8" max="9" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -610,7 +617,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>45313</v>
       </c>
@@ -627,7 +634,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>45320</v>
       </c>
@@ -650,7 +657,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>45327</v>
       </c>
@@ -670,7 +677,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>45334</v>
       </c>
@@ -686,11 +693,14 @@
       <c r="F5" t="s">
         <v>18</v>
       </c>
+      <c r="H5" t="s">
+        <v>22</v>
+      </c>
       <c r="I5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>45341</v>
       </c>
@@ -707,10 +717,10 @@
         <v>21</v>
       </c>
       <c r="H6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>45348</v>
       </c>
@@ -729,8 +739,11 @@
       <c r="G7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>45355</v>
       </c>
@@ -744,16 +757,13 @@
         <v>45357</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>45362</v>
       </c>
@@ -761,16 +771,19 @@
         <v>45362</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" s="2">
         <v>45364</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>45369</v>
       </c>
@@ -778,16 +791,19 @@
         <v>45369</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E10" s="2">
         <v>45371</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="H10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>45376</v>
       </c>
@@ -795,22 +811,19 @@
         <v>45376</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E11" s="2">
         <v>45378</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" t="s">
         <v>35</v>
       </c>
-      <c r="I11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <v>45383</v>
       </c>
@@ -818,19 +831,19 @@
         <v>45383</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E12" s="2">
         <v>45385</v>
       </c>
       <c r="F12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" t="s">
         <v>38</v>
       </c>
-      <c r="G12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <v>45390</v>
       </c>
@@ -838,22 +851,22 @@
         <v>45390</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E13" s="2">
         <v>45392</v>
       </c>
       <c r="F13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" t="s">
         <v>41</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>42</v>
       </c>
-      <c r="I13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <v>45397</v>
       </c>
@@ -867,10 +880,13 @@
         <v>45399</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
         <v>45404</v>
       </c>
@@ -878,19 +894,19 @@
         <v>45404</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E15" s="2">
         <v>45406</v>
       </c>
       <c r="F15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
         <v>45411</v>
       </c>
@@ -901,10 +917,10 @@
         <v>45413</v>
       </c>
       <c r="I16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" s="2">
         <v>45418</v>
       </c>
@@ -918,13 +934,13 @@
         <v>45420</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
